--- a/Compass/bin/Debug/CutList.xlsx
+++ b/Compass/bin/Debug/CutList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\B7 Engineering\3-Sharing Cloud\DT-Data exchange within Tech\Felix\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E83E36-A6DD-424F-BFB4-67A598406493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E52079-4DA3-47E6-B6E1-A020599B3F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Part No.</t>
-  </si>
-  <si>
     <t>排版</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Part No</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,19 +651,19 @@
         <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Compass/bin/Debug/CutList.xlsx
+++ b/Compass/bin/Debug/CutList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E52079-4DA3-47E6-B6E1-A020599B3F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFAA148-1C1F-4A1D-AD86-21FC306ABED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,5 +680,8 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>